--- a/策划案/旧配置表/卡牌表_旧.xlsx
+++ b/策划案/旧配置表/卡牌表_旧.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655" tabRatio="283"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="283" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="卡牌" sheetId="2" r:id="rId1"/>
@@ -1825,7 +1825,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1853,12 +1853,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2208,7 +2202,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2232,16 +2226,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2250,89 +2244,89 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2417,25 +2411,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2751,70 +2733,70 @@
   <sheetPr/>
   <dimension ref="A1:BP38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="9" style="29"/>
-    <col min="3" max="3" width="25.25" style="29" customWidth="1"/>
-    <col min="4" max="5" width="9" style="29"/>
-    <col min="6" max="6" width="20.25" style="29" customWidth="1"/>
-    <col min="7" max="7" width="57.75" style="29" customWidth="1"/>
-    <col min="8" max="8" width="9" style="30"/>
-    <col min="9" max="9" width="11" style="29" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="29" customWidth="1"/>
-    <col min="11" max="11" width="10.75" style="29" customWidth="1"/>
-    <col min="12" max="12" width="10.375" style="29" customWidth="1"/>
-    <col min="13" max="13" width="11.125" style="29" customWidth="1"/>
-    <col min="14" max="16" width="11.375" style="29" customWidth="1"/>
-    <col min="17" max="17" width="12.625" style="29" customWidth="1"/>
-    <col min="18" max="18" width="12.5" style="29" customWidth="1"/>
-    <col min="19" max="19" width="12.875" style="29" customWidth="1"/>
-    <col min="20" max="20" width="14" style="29" customWidth="1"/>
-    <col min="21" max="22" width="15.875" style="29" customWidth="1"/>
-    <col min="23" max="23" width="11.625" style="31" customWidth="1"/>
-    <col min="24" max="24" width="9.75" style="29" customWidth="1"/>
-    <col min="25" max="29" width="12.25" style="29" customWidth="1"/>
-    <col min="30" max="30" width="15.875" style="29" customWidth="1"/>
-    <col min="31" max="33" width="12.25" style="29" customWidth="1"/>
-    <col min="34" max="34" width="14.625" style="29" customWidth="1"/>
-    <col min="35" max="35" width="9" style="32"/>
-    <col min="36" max="36" width="14.25" style="29" customWidth="1"/>
-    <col min="37" max="37" width="9" style="29"/>
-    <col min="38" max="38" width="11" style="29" customWidth="1"/>
-    <col min="39" max="39" width="12.375" style="29" customWidth="1"/>
-    <col min="40" max="40" width="15" style="29" customWidth="1"/>
-    <col min="41" max="41" width="10.25" style="29" customWidth="1"/>
-    <col min="42" max="42" width="13.75" style="29" customWidth="1"/>
-    <col min="43" max="43" width="15.125" style="29" customWidth="1"/>
-    <col min="44" max="44" width="17.625" style="29" customWidth="1"/>
-    <col min="45" max="45" width="10.125" style="29" customWidth="1"/>
-    <col min="46" max="46" width="10.625" style="29" customWidth="1"/>
-    <col min="47" max="47" width="14.25" style="29" customWidth="1"/>
-    <col min="48" max="48" width="15" style="29" customWidth="1"/>
-    <col min="49" max="49" width="12.75" style="29" customWidth="1"/>
-    <col min="50" max="50" width="13.25" style="29" customWidth="1"/>
-    <col min="51" max="51" width="15.5" style="29" customWidth="1"/>
-    <col min="52" max="52" width="17.625" style="29" customWidth="1"/>
-    <col min="53" max="53" width="12.125" style="29" customWidth="1"/>
-    <col min="54" max="54" width="15.625" style="29" customWidth="1"/>
-    <col min="55" max="55" width="12.625" style="29" customWidth="1"/>
-    <col min="56" max="56" width="18" style="29" customWidth="1"/>
-    <col min="57" max="57" width="13.375" style="29" customWidth="1"/>
-    <col min="58" max="58" width="15" style="29" customWidth="1"/>
-    <col min="59" max="59" width="13.25" style="29" customWidth="1"/>
-    <col min="60" max="60" width="16.625" style="29" customWidth="1"/>
-    <col min="61" max="61" width="12.375" style="29" customWidth="1"/>
-    <col min="62" max="62" width="15.125" style="29" customWidth="1"/>
-    <col min="63" max="63" width="10.125" style="28" customWidth="1"/>
-    <col min="64" max="64" width="16" style="29" customWidth="1"/>
-    <col min="65" max="65" width="19.125" style="29" customWidth="1"/>
-    <col min="66" max="66" width="10.75" style="29" customWidth="1"/>
-    <col min="67" max="67" width="13.625" style="29" customWidth="1"/>
-    <col min="68" max="68" width="13.5" style="29" customWidth="1"/>
-    <col min="69" max="16384" width="9" style="29"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="25.25" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="20.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="57.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="3"/>
+    <col min="9" max="9" width="11" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.125" style="1" customWidth="1"/>
+    <col min="14" max="16" width="11.375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="14" style="1" customWidth="1"/>
+    <col min="21" max="22" width="15.875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="11.625" style="28" customWidth="1"/>
+    <col min="24" max="24" width="9.75" style="1" customWidth="1"/>
+    <col min="25" max="29" width="12.25" style="1" customWidth="1"/>
+    <col min="30" max="30" width="15.875" style="1" customWidth="1"/>
+    <col min="31" max="33" width="12.25" style="1" customWidth="1"/>
+    <col min="34" max="34" width="14.625" style="1" customWidth="1"/>
+    <col min="35" max="35" width="9" style="4"/>
+    <col min="36" max="36" width="14.25" style="1" customWidth="1"/>
+    <col min="37" max="37" width="9" style="1"/>
+    <col min="38" max="38" width="11" style="1" customWidth="1"/>
+    <col min="39" max="39" width="12.375" style="1" customWidth="1"/>
+    <col min="40" max="40" width="15" style="1" customWidth="1"/>
+    <col min="41" max="41" width="10.25" style="1" customWidth="1"/>
+    <col min="42" max="42" width="13.75" style="1" customWidth="1"/>
+    <col min="43" max="43" width="15.125" style="1" customWidth="1"/>
+    <col min="44" max="44" width="17.625" style="1" customWidth="1"/>
+    <col min="45" max="45" width="10.125" style="1" customWidth="1"/>
+    <col min="46" max="46" width="10.625" style="1" customWidth="1"/>
+    <col min="47" max="47" width="14.25" style="1" customWidth="1"/>
+    <col min="48" max="48" width="15" style="1" customWidth="1"/>
+    <col min="49" max="49" width="12.75" style="1" customWidth="1"/>
+    <col min="50" max="50" width="13.25" style="1" customWidth="1"/>
+    <col min="51" max="51" width="15.5" style="1" customWidth="1"/>
+    <col min="52" max="52" width="17.625" style="1" customWidth="1"/>
+    <col min="53" max="53" width="12.125" style="1" customWidth="1"/>
+    <col min="54" max="54" width="15.625" style="1" customWidth="1"/>
+    <col min="55" max="55" width="12.625" style="1" customWidth="1"/>
+    <col min="56" max="56" width="18" style="1" customWidth="1"/>
+    <col min="57" max="57" width="13.375" style="1" customWidth="1"/>
+    <col min="58" max="58" width="15" style="1" customWidth="1"/>
+    <col min="59" max="59" width="13.25" style="1" customWidth="1"/>
+    <col min="60" max="60" width="16.625" style="1" customWidth="1"/>
+    <col min="61" max="61" width="12.375" style="1" customWidth="1"/>
+    <col min="62" max="62" width="15.125" style="1" customWidth="1"/>
+    <col min="63" max="63" width="10.125" style="27" customWidth="1"/>
+    <col min="64" max="64" width="16" style="1" customWidth="1"/>
+    <col min="65" max="65" width="19.125" style="1" customWidth="1"/>
+    <col min="66" max="66" width="10.75" style="1" customWidth="1"/>
+    <col min="67" max="67" width="13.625" style="1" customWidth="1"/>
+    <col min="68" max="68" width="13.5" style="1" customWidth="1"/>
+    <col min="69" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:68">
@@ -2884,7 +2866,7 @@
       <c r="V1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="33" t="s">
+      <c r="W1" s="29" t="s">
         <v>0</v>
       </c>
       <c r="X1" s="7" t="s">
@@ -2932,94 +2914,94 @@
       <c r="AL1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AM1" s="29" t="s">
+      <c r="AM1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AN1" s="29" t="s">
+      <c r="AN1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AO1" s="29" t="s">
+      <c r="AO1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AP1" s="29" t="s">
+      <c r="AP1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AQ1" s="29" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AR1" s="29" t="s">
+      <c r="AR1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AS1" s="29" t="s">
+      <c r="AS1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AT1" s="29" t="s">
+      <c r="AT1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AU1" s="29" t="s">
+      <c r="AU1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AV1" s="29" t="s">
+      <c r="AV1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AW1" s="29" t="s">
+      <c r="AW1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AX1" s="29" t="s">
+      <c r="AX1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AY1" s="29" t="s">
+      <c r="AY1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AZ1" s="29" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BA1" s="29" t="s">
+      <c r="BA1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BB1" s="29" t="s">
+      <c r="BB1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BC1" s="29" t="s">
+      <c r="BC1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BD1" s="29" t="s">
+      <c r="BD1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BE1" s="29" t="s">
+      <c r="BE1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BF1" s="29" t="s">
+      <c r="BF1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BG1" s="29" t="s">
+      <c r="BG1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BH1" s="29" t="s">
+      <c r="BH1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BI1" s="29" t="s">
+      <c r="BI1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BJ1" s="29" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BK1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL1" s="29" t="s">
+      <c r="BK1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BM1" s="29" t="s">
+      <c r="BM1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BN1" s="29" t="s">
+      <c r="BN1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BO1" s="29" t="s">
+      <c r="BO1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BP1" s="29" t="s">
+      <c r="BP1" s="1" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3090,40 +3072,40 @@
       <c r="V2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="W2" s="33" t="s">
+      <c r="W2" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="X2" s="29" t="s">
+      <c r="X2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Y2" s="29" t="s">
+      <c r="Y2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="Z2" s="29" t="s">
+      <c r="Z2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AA2" s="29" t="s">
+      <c r="AA2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AB2" s="29" t="s">
+      <c r="AB2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AC2" s="29" t="s">
+      <c r="AC2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AD2" s="29" t="s">
+      <c r="AD2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AE2" s="29" t="s">
+      <c r="AE2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AF2" s="29" t="s">
+      <c r="AF2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AG2" s="29" t="s">
+      <c r="AG2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AH2" s="29" t="s">
+      <c r="AH2" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AI2" s="17" t="s">
@@ -3138,94 +3120,94 @@
       <c r="AL2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="AM2" s="29" t="s">
+      <c r="AM2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AN2" s="29" t="s">
+      <c r="AN2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AO2" s="29" t="s">
+      <c r="AO2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AP2" s="29" t="s">
+      <c r="AP2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AQ2" s="29" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AR2" s="29" t="s">
+      <c r="AR2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AS2" s="29" t="s">
+      <c r="AS2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AT2" s="29" t="s">
+      <c r="AT2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AU2" s="29" t="s">
+      <c r="AU2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AV2" s="29" t="s">
+      <c r="AV2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AW2" s="29" t="s">
+      <c r="AW2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AX2" s="29" t="s">
+      <c r="AX2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AY2" s="29" t="s">
+      <c r="AY2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AZ2" s="29" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BA2" s="29" t="s">
+      <c r="BA2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BB2" s="29" t="s">
+      <c r="BB2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BC2" s="29" t="s">
+      <c r="BC2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BD2" s="29" t="s">
+      <c r="BD2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BE2" s="29" t="s">
+      <c r="BE2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BF2" s="29" t="s">
+      <c r="BF2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BG2" s="29" t="s">
+      <c r="BG2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BH2" s="29" t="s">
+      <c r="BH2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BI2" s="29" t="s">
+      <c r="BI2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BJ2" s="29" t="s">
+      <c r="BJ2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BK2" s="28" t="s">
+      <c r="BK2" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="BL2" s="29" t="s">
+      <c r="BL2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BM2" s="29" t="s">
+      <c r="BM2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BN2" s="29" t="s">
+      <c r="BN2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BO2" s="29" t="s">
+      <c r="BO2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BP2" s="29" t="s">
+      <c r="BP2" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3296,7 +3278,7 @@
       <c r="V3" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="W3" s="33" t="s">
+      <c r="W3" s="29" t="s">
         <v>91</v>
       </c>
       <c r="X3" s="7" t="s">
@@ -3344,842 +3326,842 @@
       <c r="AL3" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="AM3" s="29" t="s">
+      <c r="AM3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AN3" s="29" t="s">
+      <c r="AN3" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AO3" s="29" t="s">
+      <c r="AO3" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AP3" s="29" t="s">
+      <c r="AP3" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AQ3" s="29" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AR3" s="29" t="s">
+      <c r="AR3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AS3" s="29" t="s">
+      <c r="AS3" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AT3" s="29" t="s">
+      <c r="AT3" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AU3" s="29" t="s">
+      <c r="AU3" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AV3" s="29" t="s">
+      <c r="AV3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AW3" s="29" t="s">
+      <c r="AW3" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AX3" s="29" t="s">
+      <c r="AX3" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="AY3" s="29" t="s">
+      <c r="AY3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AZ3" s="29" t="s">
+      <c r="AZ3" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="BA3" s="29" t="s">
+      <c r="BA3" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BB3" s="29" t="s">
+      <c r="BB3" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="BC3" s="29" t="s">
+      <c r="BC3" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="BD3" s="29" t="s">
+      <c r="BD3" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="BE3" s="29" t="s">
+      <c r="BE3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="BF3" s="29" t="s">
+      <c r="BF3" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="BG3" s="29" t="s">
+      <c r="BG3" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="BH3" s="29" t="s">
+      <c r="BH3" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="BI3" s="29" t="s">
+      <c r="BI3" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="BJ3" s="29" t="s">
+      <c r="BJ3" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="BK3" s="28" t="s">
+      <c r="BK3" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="BL3" s="29" t="s">
+      <c r="BL3" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="BM3" s="29" t="s">
+      <c r="BM3" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="BN3" s="29" t="s">
+      <c r="BN3" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="BO3" s="29" t="s">
+      <c r="BO3" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="BP3" s="29" t="s">
+      <c r="BP3" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="4" spans="2:38">
-      <c r="B4" s="29">
-        <v>1</v>
-      </c>
-      <c r="C4" s="29" t="s">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="29">
-        <v>1</v>
-      </c>
-      <c r="E4" s="29">
-        <v>1</v>
-      </c>
-      <c r="F4" s="29" t="s">
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AK4" s="29">
-        <v>1</v>
-      </c>
-      <c r="AL4" s="29">
+      <c r="AK4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:38">
-      <c r="B5" s="29">
+      <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="29">
-        <v>1</v>
-      </c>
-      <c r="E5" s="29">
-        <v>1</v>
-      </c>
-      <c r="F5" s="29" t="s">
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AK5" s="29">
+      <c r="AK5" s="1">
         <v>2</v>
       </c>
-      <c r="AL5" s="29">
+      <c r="AL5" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:38">
-      <c r="B6" s="29">
+      <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="29">
-        <v>1</v>
-      </c>
-      <c r="E6" s="29">
-        <v>1</v>
-      </c>
-      <c r="F6" s="29" t="s">
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AK6" s="29">
+      <c r="AK6" s="1">
         <v>3</v>
       </c>
-      <c r="AL6" s="29">
+      <c r="AL6" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="29">
+      <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D7" s="29">
-        <v>1</v>
-      </c>
-      <c r="E7" s="29">
-        <v>1</v>
-      </c>
-      <c r="F7" s="29" t="s">
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="29">
+      <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="1">
         <v>4</v>
       </c>
-      <c r="E8" s="29">
-        <v>1</v>
-      </c>
-      <c r="F8" s="29" t="s">
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="1" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="29">
+      <c r="B9" s="1">
         <v>6</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="1">
         <v>2</v>
       </c>
-      <c r="E9" s="29">
-        <v>1</v>
-      </c>
-      <c r="F9" s="29" t="s">
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="10" s="28" customFormat="1" spans="2:23">
-      <c r="B10" s="28">
+    <row r="10" s="27" customFormat="1" spans="2:23">
+      <c r="B10" s="27">
         <v>7</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="27">
         <v>3</v>
       </c>
-      <c r="E10" s="28">
-        <v>1</v>
-      </c>
-      <c r="F10" s="28" t="s">
+      <c r="E10" s="27">
+        <v>1</v>
+      </c>
+      <c r="F10" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="34"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="30"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="29">
+      <c r="B11" s="1">
         <v>8</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="1">
         <v>2</v>
       </c>
-      <c r="E11" s="29">
-        <v>1</v>
-      </c>
-      <c r="F11" s="29" t="s">
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="1" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="29">
+      <c r="B12" s="1">
         <v>9</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D12" s="29">
-        <v>1</v>
-      </c>
-      <c r="E12" s="29">
-        <v>1</v>
-      </c>
-      <c r="F12" s="29" t="s">
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="1" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="29">
+      <c r="B13" s="1">
         <v>10</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D13" s="29">
-        <v>1</v>
-      </c>
-      <c r="E13" s="29">
-        <v>1</v>
-      </c>
-      <c r="F13" s="29" t="s">
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="29">
+      <c r="B14" s="1">
         <v>11</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D14" s="29">
-        <v>1</v>
-      </c>
-      <c r="E14" s="29">
-        <v>1</v>
-      </c>
-      <c r="F14" s="29" t="s">
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="1" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="29">
+      <c r="B15" s="1">
         <v>12</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="1">
         <v>4</v>
       </c>
-      <c r="E15" s="29">
-        <v>1</v>
-      </c>
-      <c r="F15" s="29" t="s">
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="1" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="29">
+      <c r="B16" s="1">
         <v>13</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="1">
         <v>2</v>
       </c>
-      <c r="E16" s="29">
-        <v>1</v>
-      </c>
-      <c r="F16" s="29" t="s">
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="1" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="29">
+      <c r="B17" s="1">
         <v>14</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D17" s="29">
-        <v>1</v>
-      </c>
-      <c r="E17" s="29">
-        <v>1</v>
-      </c>
-      <c r="F17" s="29" t="s">
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="G17" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="29">
+      <c r="B18" s="1">
         <v>15</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D18" s="29">
-        <v>1</v>
-      </c>
-      <c r="E18" s="29">
-        <v>1</v>
-      </c>
-      <c r="F18" s="29" t="s">
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="1" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="29">
+      <c r="B19" s="1">
         <v>16</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D19" s="29">
-        <v>1</v>
-      </c>
-      <c r="E19" s="29">
-        <v>1</v>
-      </c>
-      <c r="F19" s="29" t="s">
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="G19" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="20" s="28" customFormat="1" spans="2:23">
-      <c r="B20" s="28">
+    <row r="20" s="27" customFormat="1" spans="2:23">
+      <c r="B20" s="27">
         <v>17</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="D20" s="28">
+      <c r="D20" s="27">
         <v>3</v>
       </c>
-      <c r="E20" s="28">
-        <v>1</v>
-      </c>
-      <c r="F20" s="28" t="s">
+      <c r="E20" s="27">
+        <v>1</v>
+      </c>
+      <c r="F20" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="G20" s="28" t="s">
+      <c r="G20" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="34"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="30"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="29">
+      <c r="B21" s="1">
         <v>18</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D21" s="29">
-        <v>1</v>
-      </c>
-      <c r="E21" s="29">
-        <v>1</v>
-      </c>
-      <c r="F21" s="29" t="s">
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="G21" s="29" t="s">
+      <c r="G21" s="1" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="29">
+      <c r="B22" s="1">
         <v>19</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D22" s="29">
-        <v>1</v>
-      </c>
-      <c r="E22" s="29">
-        <v>1</v>
-      </c>
-      <c r="F22" s="29" t="s">
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="G22" s="29" t="s">
+      <c r="G22" s="1" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="29">
+      <c r="B23" s="1">
         <v>20</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D23" s="29">
+      <c r="D23" s="1">
         <v>2</v>
       </c>
-      <c r="E23" s="29">
-        <v>1</v>
-      </c>
-      <c r="F23" s="29" t="s">
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="G23" s="29" t="s">
+      <c r="G23" s="1" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="29">
+      <c r="B24" s="1">
         <v>21</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D24" s="29">
+      <c r="D24" s="1">
         <v>2</v>
       </c>
-      <c r="E24" s="29">
-        <v>1</v>
-      </c>
-      <c r="F24" s="29" t="s">
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="G24" s="29" t="s">
+      <c r="G24" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="29">
+      <c r="B25" s="1">
         <v>22</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D25" s="29">
+      <c r="D25" s="1">
         <v>4</v>
       </c>
-      <c r="E25" s="29">
-        <v>1</v>
-      </c>
-      <c r="F25" s="29" t="s">
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G25" s="29" t="s">
+      <c r="G25" s="1" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="29">
+      <c r="B26" s="1">
         <v>23</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D26" s="29">
-        <v>1</v>
-      </c>
-      <c r="E26" s="29">
-        <v>1</v>
-      </c>
-      <c r="F26" s="29" t="s">
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="G26" s="29" t="s">
+      <c r="G26" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="27" s="28" customFormat="1" spans="2:23">
-      <c r="B27" s="28">
+    <row r="27" s="27" customFormat="1" spans="2:23">
+      <c r="B27" s="27">
         <v>24</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="D27" s="28">
+      <c r="D27" s="27">
         <v>3</v>
       </c>
-      <c r="E27" s="28">
-        <v>1</v>
-      </c>
-      <c r="F27" s="28" t="s">
+      <c r="E27" s="27">
+        <v>1</v>
+      </c>
+      <c r="F27" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="G27" s="28" t="s">
+      <c r="G27" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="28"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="34"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="30"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="29">
+      <c r="B28" s="1">
         <v>25</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D28" s="29">
-        <v>1</v>
-      </c>
-      <c r="E28" s="29">
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
         <v>2</v>
       </c>
-      <c r="F28" s="29" t="s">
+      <c r="F28" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="29" t="s">
+      <c r="G28" s="1" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="29">
+      <c r="B29" s="1">
         <v>26</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D29" s="29">
-        <v>1</v>
-      </c>
-      <c r="E29" s="29">
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
         <v>2</v>
       </c>
-      <c r="F29" s="29" t="s">
+      <c r="F29" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G29" s="29" t="s">
+      <c r="G29" s="1" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="29">
+      <c r="B30" s="1">
         <v>27</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D30" s="29">
-        <v>1</v>
-      </c>
-      <c r="E30" s="29">
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
         <v>2</v>
       </c>
-      <c r="F30" s="29" t="s">
+      <c r="F30" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="G30" s="29" t="s">
+      <c r="G30" s="1" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="29">
+      <c r="B31" s="1">
         <v>28</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D31" s="29">
-        <v>1</v>
-      </c>
-      <c r="E31" s="29">
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
         <v>2</v>
       </c>
-      <c r="F31" s="29" t="s">
+      <c r="F31" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="G31" s="29" t="s">
+      <c r="G31" s="1" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="29">
+      <c r="B32" s="1">
         <v>29</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D32" s="29">
-        <v>1</v>
-      </c>
-      <c r="E32" s="29">
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
         <v>2</v>
       </c>
-      <c r="F32" s="29" t="s">
+      <c r="F32" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G32" s="29" t="s">
+      <c r="G32" s="1" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="29">
+      <c r="B33" s="1">
         <v>30</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D33" s="29">
-        <v>1</v>
-      </c>
-      <c r="E33" s="29">
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
         <v>2</v>
       </c>
-      <c r="F33" s="29" t="s">
+      <c r="F33" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="G33" s="29" t="s">
+      <c r="G33" s="1" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="29">
+      <c r="B34" s="1">
         <v>31</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D34" s="29">
-        <v>1</v>
-      </c>
-      <c r="E34" s="29">
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1">
         <v>2</v>
       </c>
-      <c r="F34" s="29" t="s">
+      <c r="F34" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G34" s="29" t="s">
+      <c r="G34" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="29">
+      <c r="B35" s="1">
         <v>32</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D35" s="29">
+      <c r="D35" s="1">
         <v>2</v>
       </c>
-      <c r="E35" s="29">
-        <v>1</v>
-      </c>
-      <c r="F35" s="29" t="s">
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="G35" s="29" t="s">
+      <c r="G35" s="1" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="29">
+      <c r="B36" s="1">
         <v>33</v>
       </c>
-      <c r="C36" s="29" t="s">
+      <c r="C36" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D36" s="29">
+      <c r="D36" s="1">
         <v>5</v>
       </c>
-      <c r="E36" s="29">
-        <v>1</v>
-      </c>
-      <c r="F36" s="29" t="s">
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G36" s="29" t="s">
+      <c r="G36" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="37" spans="3:7">
-      <c r="C37" s="29" t="s">
+      <c r="C37" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D37" s="29">
+      <c r="D37" s="1">
         <v>5</v>
       </c>
-      <c r="G37" s="29" t="s">
+      <c r="G37" s="1" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="38" spans="3:7">
-      <c r="C38" s="29" t="s">
+      <c r="C38" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D38" s="29">
+      <c r="D38" s="1">
         <v>6</v>
       </c>
-      <c r="G38" s="29" t="s">
+      <c r="G38" s="1" t="s">
         <v>232</v>
       </c>
     </row>
@@ -4196,8 +4178,8 @@
   <sheetPr/>
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -4871,10 +4853,10 @@
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="27"/>
-      <c r="B97" s="27"/>
-      <c r="C97" s="27"/>
-      <c r="D97" s="27"/>
+      <c r="A97" s="12"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
@@ -4916,7 +4898,7 @@
   <dimension ref="A1:AA64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:K3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/策划案/旧配置表/卡牌表_旧.xlsx
+++ b/策划案/旧配置表/卡牌表_旧.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="283" activeTab="1"/>
+    <workbookView windowHeight="17775" tabRatio="283" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="卡牌" sheetId="2" r:id="rId1"/>
@@ -223,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="489">
   <si>
     <t>##var</t>
   </si>
@@ -985,6 +985,12 @@
   </si>
   <si>
     <t>优化</t>
+  </si>
+  <si>
+    <t>全球总人口</t>
+  </si>
+  <si>
+    <t>1000000</t>
   </si>
   <si>
     <t>场地条件有</t>
@@ -1001,48 +1007,114 @@
 比如内陆宗教城市=450x1.4=630w人</t>
   </si>
   <si>
+    <t>城市数量</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>平均每个城市人口比7w多一点</t>
+  </si>
+  <si>
     <t>临海</t>
   </si>
   <si>
+    <t>内陆城市市民人口</t>
+  </si>
+  <si>
     <t>岛屿</t>
   </si>
   <si>
+    <t>内陆城市数量</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>内陆城市人口总数410000‬</t>
+  </si>
+  <si>
     <t>荒漠</t>
   </si>
   <si>
+    <t>临海城市市民人口</t>
+  </si>
+  <si>
     <t>雪山</t>
   </si>
   <si>
+    <t>临海城市数量</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>临海城市人口总数400000</t>
+  </si>
+  <si>
     <t>草原</t>
   </si>
   <si>
+    <t>岛屿城市市民人口</t>
+  </si>
+  <si>
     <t>雨林</t>
   </si>
   <si>
+    <t>岛屿城市数量</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>城市类型有</t>
   </si>
   <si>
     <t>农业城市</t>
   </si>
   <si>
+    <t>荒漠城市市民人口</t>
+  </si>
+  <si>
     <t>工业城市</t>
   </si>
   <si>
+    <t>荒漠城市数量</t>
+  </si>
+  <si>
     <t>旅游城市</t>
   </si>
   <si>
+    <t>雪山城市市民人口</t>
+  </si>
+  <si>
     <t>宗教城市</t>
   </si>
   <si>
+    <t>雪山城市数量</t>
+  </si>
+  <si>
     <t>原始部落</t>
   </si>
   <si>
+    <t>草原城市市民人口</t>
+  </si>
+  <si>
     <t>首府城市</t>
   </si>
   <si>
     <t>首府比较特殊，每个类型的场地只有一个首府，全球一共7个</t>
   </si>
   <si>
+    <t>草原城市数量</t>
+  </si>
+  <si>
+    <t>雨林城市市民人口</t>
+  </si>
+  <si>
+    <t>雨林城市数量</t>
+  </si>
+  <si>
     <t>设单局游戏时长20min</t>
   </si>
   <si>
@@ -1053,6 +1125,21 @@
   </si>
   <si>
     <t>降低理智流</t>
+  </si>
+  <si>
+    <t>信仰转化获胜</t>
+  </si>
+  <si>
+    <t>珍珠梦</t>
+  </si>
+  <si>
+    <t>14个转化1m人</t>
+  </si>
+  <si>
+    <t>每信仰转化50人</t>
+  </si>
+  <si>
+    <t>相当于叠满珍珠梦后花费2w信仰</t>
   </si>
   <si>
     <t>快攻流派单局时长10min</t>
@@ -1825,7 +1912,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1853,6 +1940,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2202,7 +2295,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2226,16 +2319,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2244,89 +2337,89 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2396,6 +2489,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2405,19 +2507,25 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2756,7 +2864,7 @@
     <col min="19" max="19" width="12.875" style="1" customWidth="1"/>
     <col min="20" max="20" width="14" style="1" customWidth="1"/>
     <col min="21" max="22" width="15.875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="11.625" style="28" customWidth="1"/>
+    <col min="23" max="23" width="11.625" style="33" customWidth="1"/>
     <col min="24" max="24" width="9.75" style="1" customWidth="1"/>
     <col min="25" max="29" width="12.25" style="1" customWidth="1"/>
     <col min="30" max="30" width="15.875" style="1" customWidth="1"/>
@@ -2790,7 +2898,7 @@
     <col min="60" max="60" width="16.625" style="1" customWidth="1"/>
     <col min="61" max="61" width="12.375" style="1" customWidth="1"/>
     <col min="62" max="62" width="15.125" style="1" customWidth="1"/>
-    <col min="63" max="63" width="10.125" style="27" customWidth="1"/>
+    <col min="63" max="63" width="10.125" style="32" customWidth="1"/>
     <col min="64" max="64" width="16" style="1" customWidth="1"/>
     <col min="65" max="65" width="19.125" style="1" customWidth="1"/>
     <col min="66" max="66" width="10.75" style="1" customWidth="1"/>
@@ -2866,7 +2974,7 @@
       <c r="V1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="29" t="s">
+      <c r="W1" s="34" t="s">
         <v>0</v>
       </c>
       <c r="X1" s="7" t="s">
@@ -2986,7 +3094,7 @@
       <c r="BJ1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BK1" s="27" t="s">
+      <c r="BK1" s="32" t="s">
         <v>0</v>
       </c>
       <c r="BL1" s="1" t="s">
@@ -3072,7 +3180,7 @@
       <c r="V2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="W2" s="29" t="s">
+      <c r="W2" s="34" t="s">
         <v>64</v>
       </c>
       <c r="X2" s="1" t="s">
@@ -3192,7 +3300,7 @@
       <c r="BJ2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BK2" s="27" t="s">
+      <c r="BK2" s="32" t="s">
         <v>64</v>
       </c>
       <c r="BL2" s="1" t="s">
@@ -3278,7 +3386,7 @@
       <c r="V3" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="W3" s="29" t="s">
+      <c r="W3" s="34" t="s">
         <v>91</v>
       </c>
       <c r="X3" s="7" t="s">
@@ -3398,7 +3506,7 @@
       <c r="BJ3" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="BK3" s="27" t="s">
+      <c r="BK3" s="32" t="s">
         <v>131</v>
       </c>
       <c r="BL3" s="1" t="s">
@@ -3555,41 +3663,41 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10" s="27" customFormat="1" spans="2:23">
-      <c r="B10" s="27">
+    <row r="10" s="32" customFormat="1" spans="2:23">
+      <c r="B10" s="32">
         <v>7</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="32">
         <v>3</v>
       </c>
-      <c r="E10" s="27">
-        <v>1</v>
-      </c>
-      <c r="F10" s="27" t="s">
+      <c r="E10" s="32">
+        <v>1</v>
+      </c>
+      <c r="F10" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="30"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="35"/>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="1">
@@ -3771,41 +3879,41 @@
         <v>184</v>
       </c>
     </row>
-    <row r="20" s="27" customFormat="1" spans="2:23">
-      <c r="B20" s="27">
+    <row r="20" s="32" customFormat="1" spans="2:23">
+      <c r="B20" s="32">
         <v>17</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="32">
         <v>3</v>
       </c>
-      <c r="E20" s="27">
-        <v>1</v>
-      </c>
-      <c r="F20" s="27" t="s">
+      <c r="E20" s="32">
+        <v>1</v>
+      </c>
+      <c r="F20" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="G20" s="27" t="s">
+      <c r="G20" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="30"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="35"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="1">
@@ -3927,41 +4035,41 @@
         <v>205</v>
       </c>
     </row>
-    <row r="27" s="27" customFormat="1" spans="2:23">
-      <c r="B27" s="27">
+    <row r="27" s="32" customFormat="1" spans="2:23">
+      <c r="B27" s="32">
         <v>24</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="D27" s="27">
+      <c r="D27" s="32">
         <v>3</v>
       </c>
-      <c r="E27" s="27">
-        <v>1</v>
-      </c>
-      <c r="F27" s="27" t="s">
+      <c r="E27" s="32">
+        <v>1</v>
+      </c>
+      <c r="F27" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="G27" s="27" t="s">
+      <c r="G27" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="27"/>
-      <c r="V27" s="27"/>
-      <c r="W27" s="30"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="35"/>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="1">
@@ -4176,19 +4284,25 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:L100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="23.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="52.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="5" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="16.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="14.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="29.25" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -4295,249 +4409,398 @@
         <v>251</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:10">
       <c r="A14" s="21"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21" t="s">
         <v>252</v>
       </c>
       <c r="D14" s="22"/>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="23" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="23"/>
+      <c r="H14" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="J14" s="25"/>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C15" s="1">
         <v>450</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="F15" s="1">
+        <v>258</v>
+      </c>
+      <c r="F15" s="23">
         <v>320</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="23">
         <f>SUM(F15:F21)</f>
         <v>1570</v>
       </c>
-    </row>
-    <row r="16" spans="2:6">
+      <c r="H15" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C16" s="1">
         <v>500</v>
       </c>
       <c r="D16" s="16"/>
-      <c r="F16" s="1">
+      <c r="F16" s="23">
         <v>350</v>
       </c>
-    </row>
-    <row r="17" spans="2:6">
+      <c r="G16" s="23"/>
+      <c r="H16" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I16" s="1">
+        <v>82000</v>
+      </c>
+      <c r="J16" s="25"/>
+    </row>
+    <row r="17" spans="2:10">
       <c r="B17" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C17" s="1">
         <v>200</v>
       </c>
       <c r="D17" s="16"/>
-      <c r="F17" s="1">
+      <c r="F17" s="23">
         <v>180</v>
       </c>
-    </row>
-    <row r="18" spans="2:6">
+      <c r="G17" s="23"/>
+      <c r="H17" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="J17" s="25" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18" s="1" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="C18" s="1">
         <v>120</v>
       </c>
       <c r="D18" s="16"/>
-      <c r="F18" s="1">
+      <c r="F18" s="23">
         <v>120</v>
       </c>
-    </row>
-    <row r="19" spans="2:6">
+      <c r="G18" s="23"/>
+      <c r="H18" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="I18" s="1">
+        <v>100000</v>
+      </c>
+      <c r="J18" s="25"/>
+    </row>
+    <row r="19" spans="2:10">
       <c r="B19" s="1" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="C19" s="1">
         <v>100</v>
       </c>
       <c r="D19" s="16"/>
-      <c r="F19" s="1">
+      <c r="F19" s="23">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="2:6">
+      <c r="G19" s="23"/>
+      <c r="H19" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="J19" s="25" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
       <c r="B20" s="1" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="C20" s="1">
         <v>300</v>
       </c>
       <c r="D20" s="16"/>
-      <c r="F20" s="1">
+      <c r="F20" s="23">
         <v>260</v>
       </c>
-    </row>
-    <row r="21" spans="2:6">
+      <c r="G20" s="23"/>
+      <c r="H20" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="I20" s="1">
+        <v>44000</v>
+      </c>
+      <c r="J20" s="25"/>
+    </row>
+    <row r="21" spans="2:10">
       <c r="B21" s="1" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="C21" s="1">
         <v>260</v>
       </c>
       <c r="D21" s="16"/>
-      <c r="F21" s="1">
+      <c r="F21" s="23">
         <v>240</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="G21" s="23"/>
+      <c r="H21" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="I21" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="J21" s="25"/>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="C22" s="1">
         <v>1.2</v>
       </c>
       <c r="D22" s="16"/>
-      <c r="F22" s="1">
+      <c r="F22" s="23">
         <v>1.2</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="23">
         <f>SUM(F22:F27)</f>
         <v>8.2</v>
       </c>
-    </row>
-    <row r="23" spans="2:6">
+      <c r="H22" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="I22" s="1">
+        <v>28000</v>
+      </c>
+      <c r="J22" s="25"/>
+    </row>
+    <row r="23" spans="2:10">
       <c r="B23" s="1" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="C23" s="1">
         <v>1.5</v>
       </c>
       <c r="D23" s="16"/>
-      <c r="F23" s="1">
+      <c r="F23" s="23">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="24" spans="2:6">
+      <c r="G23" s="23"/>
+      <c r="H23" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="I23" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="J23" s="25"/>
+    </row>
+    <row r="24" spans="2:10">
       <c r="B24" s="1" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="C24" s="1">
         <v>1.6</v>
       </c>
       <c r="D24" s="16"/>
-      <c r="F24" s="1">
+      <c r="F24" s="23">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="25" spans="2:6">
+      <c r="G24" s="23"/>
+      <c r="H24" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="I24" s="1">
+        <v>22000</v>
+      </c>
+      <c r="J24" s="25"/>
+    </row>
+    <row r="25" spans="2:10">
       <c r="B25" s="1" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="C25" s="1">
         <v>1.4</v>
       </c>
       <c r="D25" s="16"/>
-      <c r="F25" s="1">
+      <c r="F25" s="23">
         <v>1.1</v>
       </c>
-    </row>
-    <row r="26" spans="2:6">
+      <c r="G25" s="23"/>
+      <c r="H25" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="I25" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="J25" s="25"/>
+    </row>
+    <row r="26" spans="2:10">
       <c r="B26" s="1" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
       </c>
       <c r="D26" s="16"/>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
+      <c r="F26" s="23">
+        <v>1</v>
+      </c>
+      <c r="G26" s="23"/>
+      <c r="H26" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I26" s="1">
+        <v>54000</v>
+      </c>
+      <c r="J26" s="25"/>
+    </row>
+    <row r="27" spans="2:10">
       <c r="B27" s="1" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="C27" s="1">
         <v>2</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F27" s="1">
+        <v>291</v>
+      </c>
+      <c r="F27" s="23">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="G27" s="23"/>
+      <c r="H27" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="I27" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="J27" s="25"/>
+    </row>
+    <row r="28" spans="6:10">
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I28" s="1">
+        <v>42000</v>
+      </c>
+      <c r="J28" s="25"/>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
+      <c r="H29" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="I29" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="J29" s="25"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>274</v>
+        <v>298</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="23" t="s">
-        <v>281</v>
+      <c r="A34" s="26" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="D40" s="1">
         <f>(C15+C16+C17+C18+C19+C20+C21)*(C22+C23+C24+C25+C26+C27)</f>
@@ -4546,7 +4809,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="D41" s="1">
         <f>240/4</f>
@@ -4555,7 +4818,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="D42" s="1">
         <f>D40/60</f>
@@ -4564,12 +4827,12 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="D44" s="1">
         <f>D40/42</f>
@@ -4578,7 +4841,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="D45" s="1">
         <f>300/400</f>
@@ -4593,45 +4856,45 @@
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="1" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
     </row>
     <row r="50" spans="2:5">
       <c r="B50" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D50" s="24" t="s">
-        <v>295</v>
-      </c>
-      <c r="E50" s="24" t="s">
-        <v>296</v>
+        <v>323</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>324</v>
+      </c>
+      <c r="E50" s="27" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>297</v>
+        <v>326</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="D51" s="1">
         <f>D40/125</f>
@@ -4640,7 +4903,7 @@
     </row>
     <row r="52" spans="3:4">
       <c r="C52" s="1" t="s">
-        <v>299</v>
+        <v>328</v>
       </c>
       <c r="D52" s="1">
         <f>D51/400</f>
@@ -4655,35 +4918,35 @@
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>300</v>
+        <v>329</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>302</v>
+        <v>331</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" s="1" t="s">
-        <v>303</v>
+        <v>332</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="1" t="s">
-        <v>304</v>
+        <v>333</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="1" t="s">
-        <v>305</v>
+        <v>334</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>306</v>
+        <v>335</v>
       </c>
       <c r="B59" s="1">
         <f>G15*G22</f>
@@ -4692,14 +4955,14 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B60" s="25">
+        <v>336</v>
+      </c>
+      <c r="B60" s="28">
         <f>B59/125</f>
         <v>102.992</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>308</v>
+        <v>337</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -4710,115 +4973,115 @@
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>309</v>
+        <v>338</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>310</v>
+        <v>339</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="1" t="s">
-        <v>311</v>
+        <v>340</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" s="1" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" s="1" t="s">
-        <v>313</v>
+        <v>342</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="1" t="s">
-        <v>314</v>
+        <v>343</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" s="1" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" s="1" t="s">
-        <v>316</v>
+        <v>345</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="1" t="s">
-        <v>317</v>
+        <v>346</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>318</v>
+        <v>347</v>
       </c>
     </row>
     <row r="72" spans="4:4">
-      <c r="D72" s="26" t="s">
-        <v>319</v>
+      <c r="D72" s="31" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="73" spans="4:4">
       <c r="D73" s="1" t="s">
-        <v>320</v>
+        <v>349</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>321</v>
+        <v>350</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="1" t="s">
-        <v>322</v>
+        <v>351</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" s="1" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" s="1" t="s">
-        <v>324</v>
+        <v>353</v>
       </c>
     </row>
     <row r="78" spans="3:3">
       <c r="C78" s="1" t="s">
-        <v>325</v>
+        <v>354</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" s="1" t="s">
-        <v>326</v>
+        <v>355</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" s="1" t="s">
-        <v>327</v>
+        <v>356</v>
       </c>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="24" t="s">
-        <v>328</v>
+      <c r="B82" s="27" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="1" t="s">
-        <v>329</v>
+        <v>358</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" s="1" t="s">
-        <v>330</v>
+        <v>359</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" s="1" t="s">
-        <v>331</v>
+        <v>360</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -4829,27 +5092,27 @@
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>332</v>
+        <v>361</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>333</v>
+        <v>362</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>334</v>
+        <v>363</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" s="1" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -4860,21 +5123,21 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
-        <v>337</v>
+        <v>366</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>338</v>
+        <v>367</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>339</v>
+        <v>368</v>
       </c>
     </row>
     <row r="100" spans="2:3">
       <c r="B100" s="1" t="s">
-        <v>340</v>
+        <v>369</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>341</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -4952,10 +5215,10 @@
         <v>0</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>342</v>
+        <v>371</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
       <c r="J1" s="17" t="s">
         <v>0</v>
@@ -4964,52 +5227,52 @@
         <v>33</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>344</v>
+        <v>373</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>345</v>
+        <v>374</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>346</v>
+        <v>375</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>347</v>
+        <v>376</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>348</v>
+        <v>377</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>349</v>
+        <v>378</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>350</v>
+        <v>379</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>351</v>
+        <v>380</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>353</v>
+        <v>382</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>354</v>
+        <v>383</v>
       </c>
       <c r="W1" s="7" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>356</v>
+        <v>385</v>
       </c>
       <c r="Y1" s="20" t="s">
-        <v>357</v>
+        <v>386</v>
       </c>
       <c r="Z1" s="20" t="s">
-        <v>358</v>
+        <v>387</v>
       </c>
       <c r="AA1" s="20" t="s">
-        <v>359</v>
+        <v>388</v>
       </c>
     </row>
     <row r="2" spans="1:27">
@@ -5118,64 +5381,64 @@
         <v>76</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>103</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>362</v>
+        <v>391</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>363</v>
+        <v>392</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>366</v>
+        <v>395</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>368</v>
+        <v>397</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>369</v>
+        <v>398</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>370</v>
+        <v>399</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>371</v>
+        <v>400</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>372</v>
+        <v>401</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>373</v>
+        <v>402</v>
       </c>
       <c r="W3" s="7" t="s">
-        <v>374</v>
+        <v>403</v>
       </c>
       <c r="X3" s="8" t="s">
-        <v>375</v>
+        <v>404</v>
       </c>
       <c r="Y3" s="20" t="s">
-        <v>376</v>
+        <v>405</v>
       </c>
       <c r="Z3" s="20" t="s">
         <v>95</v>
       </c>
       <c r="AA3" s="20" t="s">
-        <v>377</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4" spans="2:27">
@@ -5183,13 +5446,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>378</v>
+        <v>407</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>379</v>
+        <v>408</v>
       </c>
       <c r="F4" s="2" t="b">
         <v>1</v>
@@ -5217,7 +5480,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="Q4" s="1">
         <v>0.5</v>
@@ -5250,7 +5513,7 @@
         <v>1</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>381</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="2:27">
@@ -5258,13 +5521,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>382</v>
+        <v>411</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>383</v>
+        <v>412</v>
       </c>
       <c r="F5" s="2" t="b">
         <v>1</v>
@@ -5292,7 +5555,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>384</v>
+        <v>413</v>
       </c>
       <c r="Q5" s="1">
         <v>0</v>
@@ -5325,7 +5588,7 @@
         <v>1</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>385</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="2:27">
@@ -5333,13 +5596,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>387</v>
+        <v>416</v>
       </c>
       <c r="F6" s="2" t="b">
         <v>1</v>
@@ -5367,7 +5630,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="Q6" s="1">
         <v>0</v>
@@ -5400,7 +5663,7 @@
         <v>0</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>388</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7" spans="2:27">
@@ -5408,13 +5671,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>389</v>
+        <v>418</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>390</v>
+        <v>419</v>
       </c>
       <c r="F7" s="2" t="b">
         <v>0</v>
@@ -5442,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="Q7" s="1">
         <v>0</v>
@@ -5475,7 +5738,7 @@
         <v>-20</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>391</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="2:27">
@@ -5483,13 +5746,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>392</v>
+        <v>421</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>393</v>
+        <v>422</v>
       </c>
       <c r="F8" s="2" t="b">
         <v>1</v>
@@ -5517,7 +5780,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="Q8" s="1">
         <v>0</v>
@@ -5550,7 +5813,7 @@
         <v>0</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>394</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9" spans="2:27">
@@ -5558,13 +5821,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>395</v>
+        <v>424</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>396</v>
+        <v>425</v>
       </c>
       <c r="F9" s="2" t="b">
         <v>1</v>
@@ -5592,7 +5855,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="Q9" s="1">
         <v>0</v>
@@ -5625,7 +5888,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>397</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10" spans="2:27">
@@ -5633,13 +5896,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>398</v>
+        <v>427</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>399</v>
+        <v>428</v>
       </c>
       <c r="F10" s="2" t="b">
         <v>1</v>
@@ -5667,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="Q10" s="1">
         <v>0</v>
@@ -5700,7 +5963,7 @@
         <v>0</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>400</v>
+        <v>429</v>
       </c>
     </row>
     <row r="11" spans="2:27">
@@ -5708,13 +5971,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>401</v>
+        <v>430</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>402</v>
+        <v>431</v>
       </c>
       <c r="F11" s="2" t="b">
         <v>1</v>
@@ -5742,7 +6005,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="Q11" s="1">
         <v>0</v>
@@ -5775,7 +6038,7 @@
         <v>100</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>403</v>
+        <v>432</v>
       </c>
     </row>
     <row r="12" spans="2:26">
@@ -5783,13 +6046,13 @@
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>404</v>
+        <v>433</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>405</v>
+        <v>434</v>
       </c>
       <c r="F12" s="2" t="b">
         <v>1</v>
@@ -5817,7 +6080,7 @@
         <v>0.2</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="Q12" s="1">
         <v>0</v>
@@ -5855,13 +6118,13 @@
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>406</v>
+        <v>435</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>407</v>
+        <v>436</v>
       </c>
       <c r="F13" s="2" t="b">
         <v>0</v>
@@ -5889,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="Q13" s="1">
         <v>0</v>
@@ -5927,13 +6190,13 @@
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>408</v>
+        <v>437</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>409</v>
+        <v>438</v>
       </c>
       <c r="F14" s="2" t="b">
         <v>1</v>
@@ -5961,7 +6224,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="Q14" s="1">
         <v>0</v>
@@ -5999,13 +6262,13 @@
         <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>410</v>
+        <v>439</v>
       </c>
       <c r="D15" s="1">
         <v>2</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>411</v>
+        <v>440</v>
       </c>
       <c r="F15" s="2" t="b">
         <v>1</v>
@@ -6033,7 +6296,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="Q15" s="1">
         <v>0</v>
@@ -6071,13 +6334,13 @@
         <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>412</v>
+        <v>441</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>413</v>
+        <v>442</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="15"/>
@@ -6112,13 +6375,13 @@
         <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>414</v>
+        <v>443</v>
       </c>
       <c r="D17" s="1">
         <v>2</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>415</v>
+        <v>444</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="3"/>
@@ -6137,13 +6400,13 @@
         <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>416</v>
+        <v>445</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>417</v>
+        <v>446</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="3"/>
@@ -6162,13 +6425,13 @@
         <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>418</v>
+        <v>447</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>419</v>
+        <v>448</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="3"/>
@@ -6187,13 +6450,13 @@
         <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>420</v>
+        <v>449</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="3"/>
@@ -6212,13 +6475,13 @@
         <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>422</v>
+        <v>451</v>
       </c>
       <c r="D21" s="1">
         <v>3</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>423</v>
+        <v>452</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="3"/>
@@ -6237,13 +6500,13 @@
         <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>424</v>
+        <v>453</v>
       </c>
       <c r="D22" s="1">
         <v>3</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>425</v>
+        <v>454</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="3"/>
@@ -6262,13 +6525,13 @@
         <v>20</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>426</v>
+        <v>455</v>
       </c>
       <c r="D23" s="1">
         <v>3</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>427</v>
+        <v>456</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="3"/>
@@ -6287,13 +6550,13 @@
         <v>21</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>428</v>
+        <v>457</v>
       </c>
       <c r="D24" s="1">
         <v>3</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>429</v>
+        <v>458</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="3"/>
@@ -6312,13 +6575,13 @@
         <v>22</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>430</v>
+        <v>459</v>
       </c>
       <c r="D25" s="1">
         <v>3</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>431</v>
+        <v>460</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="3"/>
@@ -6332,7 +6595,7 @@
         <v>1</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>432</v>
+        <v>461</v>
       </c>
     </row>
     <row r="26" spans="2:26">
@@ -6340,13 +6603,13 @@
         <v>23</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>433</v>
+        <v>462</v>
       </c>
       <c r="D26" s="1">
         <v>3</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>434</v>
+        <v>463</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="3"/>
@@ -6365,13 +6628,13 @@
         <v>24</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>435</v>
+        <v>464</v>
       </c>
       <c r="D27" s="1">
         <v>3</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>436</v>
+        <v>465</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="3"/>
@@ -6390,13 +6653,13 @@
         <v>25</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>437</v>
+        <v>466</v>
       </c>
       <c r="D28" s="1">
         <v>3</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>438</v>
+        <v>467</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="3"/>
@@ -6415,13 +6678,13 @@
         <v>26</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>439</v>
+        <v>468</v>
       </c>
       <c r="D29" s="1">
         <v>4</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>440</v>
+        <v>469</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="3"/>
@@ -6440,13 +6703,13 @@
         <v>27</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>441</v>
+        <v>470</v>
       </c>
       <c r="D30" s="1">
         <v>4</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>442</v>
+        <v>471</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="3"/>
@@ -6465,13 +6728,13 @@
         <v>28</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>443</v>
+        <v>472</v>
       </c>
       <c r="D31" s="1">
         <v>4</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>444</v>
+        <v>473</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="3"/>
@@ -6490,13 +6753,13 @@
         <v>29</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>445</v>
+        <v>474</v>
       </c>
       <c r="D32" s="1">
         <v>4</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>446</v>
+        <v>475</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="3"/>
@@ -6510,7 +6773,7 @@
         <v>0</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>447</v>
+        <v>476</v>
       </c>
     </row>
     <row r="33" spans="2:26">
@@ -6518,13 +6781,13 @@
         <v>30</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>448</v>
+        <v>477</v>
       </c>
       <c r="D33" s="1">
         <v>4</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>449</v>
+        <v>478</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="3"/>
@@ -6543,13 +6806,13 @@
         <v>31</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>450</v>
+        <v>479</v>
       </c>
       <c r="D34" s="1">
         <v>4</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>451</v>
+        <v>480</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="3"/>
@@ -6568,13 +6831,13 @@
         <v>32</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>452</v>
+        <v>481</v>
       </c>
       <c r="D35" s="1">
         <v>4</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>453</v>
+        <v>482</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="3"/>
@@ -6593,13 +6856,13 @@
         <v>33</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>454</v>
+        <v>483</v>
       </c>
       <c r="D36" s="1">
         <v>4</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>455</v>
+        <v>484</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="3"/>
@@ -6618,13 +6881,13 @@
         <v>34</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>456</v>
+        <v>485</v>
       </c>
       <c r="D37" s="1">
         <v>4</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>457</v>
+        <v>486</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="3"/>
@@ -6643,13 +6906,13 @@
         <v>35</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>458</v>
+        <v>487</v>
       </c>
       <c r="D38" s="1">
         <v>4</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="3"/>
